--- a/CON02D.xlsx
+++ b/CON02D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="326">
   <si>
     <t/>
   </si>
@@ -70,163 +70,172 @@
     <t>5</t>
   </si>
   <si>
+    <t>20140881</t>
+  </si>
+  <si>
+    <t>TOLL CANDY BLUE 120G</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>20056214</t>
   </si>
   <si>
     <t>PINO ICE CUP PCK 6'S</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20093182</t>
-  </si>
-  <si>
-    <t>IDM CANDY GUMMY 100</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>20098360</t>
+  </si>
+  <si>
+    <t>CHA CHA SURPRISE 2'S</t>
+  </si>
+  <si>
+    <t>20097984</t>
+  </si>
+  <si>
+    <t>CHOKI CHOKI 6X4G</t>
+  </si>
+  <si>
+    <t>10000322</t>
+  </si>
+  <si>
+    <t>CHOKI CHOKI CHO 4X9G</t>
+  </si>
+  <si>
+    <t>20084899</t>
+  </si>
+  <si>
+    <t>L`AGIE GLDN CITY 75G</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20139890</t>
+  </si>
+  <si>
+    <t>WNHAE STRW CHEESCAKE</t>
+  </si>
+  <si>
+    <t>20139889</t>
+  </si>
+  <si>
+    <t>WNHAE PISTACHIO CHOC</t>
+  </si>
+  <si>
+    <t>20135198</t>
+  </si>
+  <si>
+    <t>WONHAE YOG.GUM ORI48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20135661</t>
+  </si>
+  <si>
+    <t>WNHAE GMMY MXD.FRT32</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20033392</t>
+  </si>
+  <si>
+    <t>DELFI CHACHA MINIS30</t>
+  </si>
+  <si>
+    <t>20077110</t>
+  </si>
+  <si>
+    <t>CHACHA MINIS HATS 30</t>
+  </si>
+  <si>
+    <t>20122057</t>
+  </si>
+  <si>
+    <t>CHACHA MINIS CAR12.5</t>
+  </si>
+  <si>
+    <t>20140016</t>
+  </si>
+  <si>
+    <t>M&amp;M'S CHO PEANUT 37G</t>
+  </si>
+  <si>
+    <t>20140013</t>
+  </si>
+  <si>
+    <t>M&amp;M'S CHOC CRSPY 30G</t>
+  </si>
+  <si>
+    <t>20138164</t>
+  </si>
+  <si>
+    <t>AMOS GUMMY RBT  72G</t>
+  </si>
+  <si>
+    <t>20125849</t>
+  </si>
+  <si>
+    <t>AMOS GUMMY 4D BLK 72</t>
+  </si>
+  <si>
+    <t>20140015</t>
+  </si>
+  <si>
+    <t>AMOS BANANA GUMMY 68</t>
+  </si>
+  <si>
+    <t>20045175</t>
+  </si>
+  <si>
+    <t>CHA CHA MILK CHO 20G</t>
+  </si>
+  <si>
+    <t>20045176</t>
+  </si>
+  <si>
+    <t>CHA CHA PNUT CHO 20G</t>
+  </si>
+  <si>
+    <t>20063093</t>
+  </si>
+  <si>
+    <t>DELFI MALTITOS 26</t>
+  </si>
+  <si>
+    <t>10000418</t>
+  </si>
+  <si>
+    <t>DELFI CHIC CHOC 36G</t>
+  </si>
+  <si>
+    <t>20024539</t>
+  </si>
+  <si>
+    <t>S/Q BITES ALMOND 30G</t>
+  </si>
+  <si>
+    <t>20128815</t>
+  </si>
+  <si>
+    <t>IDM GUMMY CHO MF 40G</t>
+  </si>
+  <si>
     <t>PT,(E-1B)</t>
   </si>
   <si>
-    <t>20098360</t>
-  </si>
-  <si>
-    <t>CHA CHA SURPRISE 2'S</t>
-  </si>
-  <si>
-    <t>20097984</t>
-  </si>
-  <si>
-    <t>CHOKI CHOKI 6X4G</t>
-  </si>
-  <si>
-    <t>10000322</t>
-  </si>
-  <si>
-    <t>CHOKI CHOKI CHO 4X9G</t>
-  </si>
-  <si>
-    <t>20084899</t>
-  </si>
-  <si>
-    <t>L`AGIE GLDN CITY 75G</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20139890</t>
-  </si>
-  <si>
-    <t>WNHAE STRW CHEESCAKE</t>
-  </si>
-  <si>
-    <t>20139889</t>
-  </si>
-  <si>
-    <t>WNHAE PISTACHIO CHOC</t>
-  </si>
-  <si>
-    <t>20135198</t>
-  </si>
-  <si>
-    <t>WONHAE YOG.GUM ORI48</t>
-  </si>
-  <si>
-    <t>20135661</t>
-  </si>
-  <si>
-    <t>WNHAE GMMY MXD.FRT32</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20033392</t>
-  </si>
-  <si>
-    <t>DELFI CHACHA MINIS30</t>
-  </si>
-  <si>
-    <t>20077110</t>
-  </si>
-  <si>
-    <t>CHACHA MINIS HATS 30</t>
-  </si>
-  <si>
-    <t>20122057</t>
-  </si>
-  <si>
-    <t>CHACHA MINIS CAR12.5</t>
-  </si>
-  <si>
-    <t>20140016</t>
-  </si>
-  <si>
-    <t>M&amp;M'S CHO PEANUT 37G</t>
-  </si>
-  <si>
-    <t>20140013</t>
-  </si>
-  <si>
-    <t>M&amp;M'S CHOC CRSPY 30G</t>
-  </si>
-  <si>
-    <t>20138164</t>
-  </si>
-  <si>
-    <t>AMOS GUMMY RBT  72G</t>
-  </si>
-  <si>
-    <t>20125849</t>
-  </si>
-  <si>
-    <t>AMOS GUMMY 4D BLK 72</t>
-  </si>
-  <si>
-    <t>20140015</t>
-  </si>
-  <si>
-    <t>AMOS BANANA GUMMY 68</t>
-  </si>
-  <si>
-    <t>20045175</t>
-  </si>
-  <si>
-    <t>CHA CHA MILK CHO 20G</t>
-  </si>
-  <si>
-    <t>20045176</t>
-  </si>
-  <si>
-    <t>CHA CHA PNUT CHO 20G</t>
-  </si>
-  <si>
-    <t>20063093</t>
-  </si>
-  <si>
-    <t>DELFI MALTITOS 28</t>
-  </si>
-  <si>
-    <t>10000418</t>
-  </si>
-  <si>
-    <t>DELFI CHIC CHOC 36G</t>
-  </si>
-  <si>
-    <t>20024539</t>
-  </si>
-  <si>
-    <t>S/Q BITES ALMOND 30G</t>
-  </si>
-  <si>
-    <t>20128815</t>
-  </si>
-  <si>
-    <t>IDM GUMMY CHO MF 40G</t>
+    <t>20140906</t>
+  </si>
+  <si>
+    <t>MILKITA BAR CHOC 15G</t>
   </si>
   <si>
     <t>20140412</t>
@@ -349,57 +358,54 @@
     <t>L'AGIE FULL MILK 60G</t>
   </si>
   <si>
+    <t>20133639</t>
+  </si>
+  <si>
+    <t>DW DARK.CHO ALMND 56</t>
+  </si>
+  <si>
+    <t>20089666</t>
+  </si>
+  <si>
+    <t>CADBURY CSHW NUT 85G</t>
+  </si>
+  <si>
+    <t>20062877</t>
+  </si>
+  <si>
+    <t>CADBURY BLCK.FOR 57G</t>
+  </si>
+  <si>
+    <t>20140883</t>
+  </si>
+  <si>
+    <t>CADBURY BUBBLY 46G</t>
+  </si>
+  <si>
+    <t>20008798</t>
+  </si>
+  <si>
+    <t>S/Q CHUNKY CASHEW 82</t>
+  </si>
+  <si>
+    <t>10036987</t>
+  </si>
+  <si>
+    <t>S/Q CHOCO CASHEW 52G</t>
+  </si>
+  <si>
+    <t>20092545</t>
+  </si>
+  <si>
+    <t>SLVR QUEEN MATCHA 52</t>
+  </si>
+  <si>
     <t>20092546</t>
   </si>
   <si>
     <t>SLVR QUEEN MATCHA 22</t>
   </si>
   <si>
-    <t>20133639</t>
-  </si>
-  <si>
-    <t>DW DARK.CHO ALMND 56</t>
-  </si>
-  <si>
-    <t>20089666</t>
-  </si>
-  <si>
-    <t>CADBURY CSHW NUT 85G</t>
-  </si>
-  <si>
-    <t>20062877</t>
-  </si>
-  <si>
-    <t>CADBURY BLCK.FOR 57G</t>
-  </si>
-  <si>
-    <t>20008798</t>
-  </si>
-  <si>
-    <t>S/Q CHUNKY CASHEW 85</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10036987</t>
-  </si>
-  <si>
-    <t>S/Q CHOCO CASHEW 55G</t>
-  </si>
-  <si>
-    <t>20092545</t>
-  </si>
-  <si>
-    <t>SLVR QUEEN MATCHA 55</t>
-  </si>
-  <si>
-    <t>20124902</t>
-  </si>
-  <si>
-    <t>SQ B2G1 CASHEW 3X55G</t>
-  </si>
-  <si>
     <t>20140185</t>
   </si>
   <si>
@@ -619,211 +625,223 @@
     <t>IDM CND GUMMY PUZL50</t>
   </si>
   <si>
+    <t>20140907</t>
+  </si>
+  <si>
+    <t>MLKITA PUDD MILK 85G</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20140908</t>
+  </si>
+  <si>
+    <t>MLKITA PUDD STRW 85G</t>
+  </si>
+  <si>
+    <t>20135479</t>
+  </si>
+  <si>
+    <t>FRUZZ CNDY BALL 25.5</t>
+  </si>
+  <si>
+    <t>20129814</t>
+  </si>
+  <si>
+    <t>MLKITA CNDY BTES 24G</t>
+  </si>
+  <si>
+    <t>20082651</t>
+  </si>
+  <si>
+    <t>BIG BB FLFLY TTFR 11</t>
+  </si>
+  <si>
+    <t>20083719</t>
+  </si>
+  <si>
+    <t>NANO MILKY COK 12G</t>
+  </si>
+  <si>
     <t>20138030</t>
   </si>
   <si>
     <t>JGOAN/N LOLY LDH WRN</t>
   </si>
   <si>
+    <t>20139394</t>
+  </si>
+  <si>
+    <t>JLO GUMMY BEAR 40G</t>
+  </si>
+  <si>
+    <t>20139685</t>
+  </si>
+  <si>
+    <t>BONCHA GUMMY BLND 30</t>
+  </si>
+  <si>
+    <t>20135995</t>
+  </si>
+  <si>
+    <t>JLO GUMMY BITE 40G</t>
+  </si>
+  <si>
+    <t>20053360</t>
+  </si>
+  <si>
+    <t>ALPNLIEBE ECLRS 126G</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10012263</t>
+  </si>
+  <si>
+    <t>TAMARIN CDY ASEM 81G</t>
+  </si>
+  <si>
+    <t>20024096</t>
+  </si>
+  <si>
+    <t>KIS CND MNT GRAPE 75</t>
+  </si>
+  <si>
+    <t>10037013</t>
+  </si>
+  <si>
+    <t>RELAXA BARLEY MNT108</t>
+  </si>
+  <si>
+    <t>20040504</t>
+  </si>
+  <si>
+    <t>MILKITA CANDY 12'S</t>
+  </si>
+  <si>
+    <t>20077302</t>
+  </si>
+  <si>
+    <t>MILKITA CANDY MLK30S</t>
+  </si>
+  <si>
+    <t>20136282</t>
+  </si>
+  <si>
+    <t>MILKITA LOLIPOP 3'S</t>
+  </si>
+  <si>
+    <t>10002564</t>
+  </si>
+  <si>
+    <t>MENTOS MINT 121.5GR</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10030199</t>
+  </si>
+  <si>
+    <t>MNTOS CND BUAH 121.5</t>
+  </si>
+  <si>
+    <t>20031736</t>
+  </si>
+  <si>
+    <t>MINTZ CNDY.PPRMNT 99</t>
+  </si>
+  <si>
+    <t>20028732</t>
+  </si>
+  <si>
+    <t>MINTZ CDY.DUO MNT 99</t>
+  </si>
+  <si>
+    <t>20043035</t>
+  </si>
+  <si>
+    <t>H/WHITE GUM MINT 70G</t>
+  </si>
+  <si>
+    <t>20127602</t>
+  </si>
+  <si>
+    <t>SZ CANDY ASSTRD 50S</t>
+  </si>
+  <si>
+    <t>10000172</t>
+  </si>
+  <si>
+    <t>KOPIKO CANDY PCK 105</t>
+  </si>
+  <si>
+    <t>10000766</t>
+  </si>
+  <si>
+    <t>SUGUS STICK STB30GR</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10000765</t>
+  </si>
+  <si>
+    <t>SUGUS STICK BLCRNT30</t>
+  </si>
+  <si>
+    <t>20088545</t>
+  </si>
+  <si>
+    <t>MNTOS INR.CHEW GRP45</t>
+  </si>
+  <si>
+    <t>20014081</t>
+  </si>
+  <si>
+    <t>FROZZ CND BLUBERYT15</t>
+  </si>
+  <si>
+    <t>10003481</t>
+  </si>
+  <si>
+    <t>FROZZ BARLEY MINT 15</t>
+  </si>
+  <si>
+    <t>10003491</t>
+  </si>
+  <si>
+    <t>FROZZ CHERRY MINT 15</t>
+  </si>
+  <si>
+    <t>20138041</t>
+  </si>
+  <si>
+    <t>FROZZ MANGO BINGSO14</t>
+  </si>
+  <si>
+    <t>20067474</t>
+  </si>
+  <si>
+    <t>CAPUNG PASTILLES 7G</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
     <t>20016240</t>
   </si>
   <si>
     <t>FOX'S CRYST.BERIES90</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>10000763</t>
   </si>
   <si>
     <t>FOX'S CANDY FRUIT 90</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20129814</t>
-  </si>
-  <si>
-    <t>MLKITA CNDY BTES 24G</t>
-  </si>
-  <si>
-    <t>20082651</t>
-  </si>
-  <si>
-    <t>BIG BB FLFLY TTFR 11</t>
-  </si>
-  <si>
-    <t>20083719</t>
-  </si>
-  <si>
-    <t>NANO MILKY COK 12G</t>
-  </si>
-  <si>
-    <t>20139394</t>
-  </si>
-  <si>
-    <t>JLO GUMMY BEAR 40G</t>
-  </si>
-  <si>
-    <t>20139685</t>
-  </si>
-  <si>
-    <t>BONCHA GUMMY BLND 30</t>
-  </si>
-  <si>
-    <t>20135995</t>
-  </si>
-  <si>
-    <t>JLO GUMMY BITE 40G</t>
-  </si>
-  <si>
-    <t>20053360</t>
-  </si>
-  <si>
-    <t>ALPNLIEBE ECLRS 126G</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10012263</t>
-  </si>
-  <si>
-    <t>TAMARIN CDY ASEM 81G</t>
-  </si>
-  <si>
-    <t>20024096</t>
-  </si>
-  <si>
-    <t>KIS CND MNT GRAPE 75</t>
-  </si>
-  <si>
-    <t>10037013</t>
-  </si>
-  <si>
-    <t>RELAXA BARLEY MNT108</t>
-  </si>
-  <si>
-    <t>20040504</t>
-  </si>
-  <si>
-    <t>MILKITA CANDY 12'S</t>
-  </si>
-  <si>
-    <t>20077302</t>
-  </si>
-  <si>
-    <t>MILKITA CANDY MLK30S</t>
-  </si>
-  <si>
-    <t>20136282</t>
-  </si>
-  <si>
-    <t>MILKITA LOLIPOP 3'S</t>
-  </si>
-  <si>
-    <t>10002564</t>
-  </si>
-  <si>
-    <t>MENTOS MINT 121.5GR</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10030199</t>
-  </si>
-  <si>
-    <t>MNTOS CND BUAH 121.5</t>
-  </si>
-  <si>
-    <t>20031736</t>
-  </si>
-  <si>
-    <t>MINTZ CNDY.PPRMNT 99</t>
-  </si>
-  <si>
-    <t>20028732</t>
-  </si>
-  <si>
-    <t>MINTZ CDY.DUO MNT 99</t>
-  </si>
-  <si>
-    <t>20043035</t>
-  </si>
-  <si>
-    <t>H/WHITE GUM MINT 70G</t>
-  </si>
-  <si>
-    <t>20127602</t>
-  </si>
-  <si>
-    <t>SZ CANDY ASSTRD 50S</t>
-  </si>
-  <si>
-    <t>10000172</t>
-  </si>
-  <si>
-    <t>KOPIKO CANDY PCK 105</t>
-  </si>
-  <si>
-    <t>10000766</t>
-  </si>
-  <si>
-    <t>SUGUS STICK STB30GR</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10000765</t>
-  </si>
-  <si>
-    <t>SUGUS STICK BLCRNT30</t>
-  </si>
-  <si>
-    <t>20088545</t>
-  </si>
-  <si>
-    <t>MNTOS INR.CHEW GRP45</t>
-  </si>
-  <si>
-    <t>20135479</t>
-  </si>
-  <si>
-    <t>FRUZZ CNDY BALL 25.5</t>
-  </si>
-  <si>
-    <t>20014081</t>
-  </si>
-  <si>
-    <t>FROZZ CND BLUBERYT15</t>
-  </si>
-  <si>
-    <t>10003481</t>
-  </si>
-  <si>
-    <t>FROZZ BARLEY MINT 15</t>
-  </si>
-  <si>
-    <t>10003491</t>
-  </si>
-  <si>
-    <t>FROZZ CHERRY MINT 15</t>
-  </si>
-  <si>
-    <t>20138041</t>
-  </si>
-  <si>
-    <t>FROZZ MANGO BINGSO14</t>
-  </si>
-  <si>
-    <t>20067474</t>
-  </si>
-  <si>
-    <t>CAPUNG PASTILLES 7G</t>
   </si>
   <si>
     <t>20099973</t>
@@ -1363,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F149"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1530,15 +1548,15 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1555,10 +1573,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1575,10 +1593,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1595,10 +1613,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1610,15 +1628,15 @@
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1627,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1635,10 +1653,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1647,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -1655,10 +1673,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1667,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -1847,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -1964,21 +1982,21 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1987,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -1995,10 +2013,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -2007,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -2015,10 +2033,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2027,7 +2045,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2035,10 +2053,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2047,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -2055,10 +2073,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -2067,7 +2085,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -2075,22 +2093,22 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,18 +2125,18 @@
         <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2127,18 +2145,18 @@
         <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2147,10 +2165,10 @@
         <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,18 +2185,18 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2187,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -2195,10 +2213,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2207,38 +2225,38 @@
         <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2247,7 +2265,7 @@
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -2255,10 +2273,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2267,7 +2285,7 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2275,10 +2293,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2287,7 +2305,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2295,10 +2313,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2307,7 +2325,7 @@
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2315,10 +2333,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2327,7 +2345,7 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2335,10 +2353,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2347,47 +2365,47 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2395,19 +2413,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2415,19 +2433,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2435,19 +2453,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2464,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2484,10 +2502,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2504,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2524,33 +2542,33 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2584,13 +2602,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,13 +2642,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,13 +2662,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,13 +2682,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,13 +2702,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,10 +2722,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -2715,22 +2733,22 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,13 +2762,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2784,10 +2802,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -2804,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -2824,13 +2842,13 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,30 +2862,30 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2884,10 +2902,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -2904,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
@@ -2924,10 +2942,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2944,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -2964,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -2984,10 +3002,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3004,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3015,19 +3033,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3044,13 +3062,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,13 +3082,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,10 +3102,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3104,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -3124,13 +3142,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,13 +3162,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3184,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -3204,10 +3222,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -3250,15 +3268,15 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -3275,10 +3293,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3295,10 +3313,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -3310,15 +3328,15 @@
         <v>18</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -3330,15 +3348,15 @@
         <v>21</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -3355,10 +3373,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
@@ -3367,7 +3385,7 @@
         <v>206</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3375,19 +3393,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3395,19 +3413,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3415,19 +3433,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3435,19 +3453,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3455,19 +3473,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3475,19 +3493,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3495,19 +3513,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3515,19 +3533,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3535,19 +3553,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3555,99 +3573,99 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
@@ -3655,19 +3673,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -3675,19 +3693,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3695,19 +3713,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3715,19 +3733,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -3735,39 +3753,39 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>9</v>
@@ -3775,19 +3793,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -3795,79 +3813,79 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
@@ -3875,42 +3893,42 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,73 +3942,73 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4024,10 +4042,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4035,19 +4053,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4055,39 +4073,39 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4104,10 +4122,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4124,13 +4142,13 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
@@ -4164,10 +4182,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>5</v>
@@ -4184,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>5</v>
@@ -4204,10 +4222,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4224,10 +4242,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -4244,10 +4262,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -4264,10 +4282,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4284,13 +4302,73 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>282</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/CON02D.xlsx
+++ b/CON02D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="330">
   <si>
     <t/>
   </si>
@@ -115,6 +115,12 @@
     <t>RT,(E-3B)</t>
   </si>
   <si>
+    <t>20141002</t>
+  </si>
+  <si>
+    <t>WONHAE MTCHA BRY 30G</t>
+  </si>
+  <si>
     <t>20139890</t>
   </si>
   <si>
@@ -406,6 +412,15 @@
     <t>SLVR QUEEN MATCHA 22</t>
   </si>
   <si>
+    <t>20141062</t>
+  </si>
+  <si>
+    <t>SQ CHUNKY CUPID 3X26</t>
+  </si>
+  <si>
+    <t>TG,(E-1B)</t>
+  </si>
+  <si>
     <t>20140185</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>TG,(E-1B)</t>
   </si>
   <si>
     <t>20130159</t>
@@ -1381,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F151"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1645,7 +1657,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1665,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -1685,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -1693,10 +1705,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1705,7 +1717,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -1713,19 +1725,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1745,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -1765,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -1785,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
@@ -1805,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -1825,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -1845,7 +1857,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -1865,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -1882,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -1905,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -1925,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
@@ -1945,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -1965,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -1985,30 +1997,30 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -2045,7 +2057,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2065,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -2085,7 +2097,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -2105,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -2122,21 +2134,21 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2145,10 +2157,10 @@
         <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,10 +2177,10 @@
         <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,18 +2197,18 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2205,10 +2217,10 @@
         <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,7 +2237,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -2245,10 +2257,10 @@
         <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,13 +2274,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2305,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2325,7 +2337,7 @@
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2345,7 +2357,7 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2365,7 +2377,7 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -2385,10 +2397,10 @@
         <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,13 +2414,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2442,10 +2454,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2462,10 +2474,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2482,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2502,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2522,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2542,10 +2554,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2562,53 +2574,53 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,13 +2634,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,13 +2654,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,13 +2694,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2702,13 +2714,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,13 +2734,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2742,50 +2754,50 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2802,13 +2814,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,10 +2834,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -2842,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2862,13 +2874,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,10 +2894,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2893,39 +2905,39 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
@@ -2942,10 +2954,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2962,10 +2974,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -2982,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3002,10 +3014,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3022,10 +3034,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3042,10 +3054,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3053,19 +3065,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3073,22 +3085,22 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3122,13 +3134,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,10 +3154,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3162,13 +3174,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3202,13 +3214,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -3242,10 +3254,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3253,19 +3265,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3273,19 +3285,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3302,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3322,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3342,13 +3354,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3362,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3382,13 +3394,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3402,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3422,10 +3434,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3442,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3453,19 +3465,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3473,19 +3485,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3502,10 +3514,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3522,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3542,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3562,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3582,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -3593,19 +3605,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3613,22 +3625,22 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3642,13 +3654,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3662,13 +3674,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,13 +3694,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3702,10 +3714,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3722,10 +3734,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3733,19 +3745,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -3753,19 +3765,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -3782,13 +3794,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,13 +3814,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,10 +3834,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>9</v>
@@ -3842,13 +3854,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,30 +3874,30 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>272</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
@@ -3893,22 +3905,22 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,53 +3934,53 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>5</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,13 +3994,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,53 +4014,53 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>288</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>5</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4082,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4102,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4113,19 +4125,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4133,22 +4145,22 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4162,10 +4174,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
@@ -4182,13 +4194,13 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>5</v>
@@ -4222,10 +4234,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4242,10 +4254,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -4262,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -4282,10 +4294,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4302,10 +4314,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4322,10 +4334,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4342,10 +4354,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4362,13 +4374,53 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>288</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/CON02D.xlsx
+++ b/CON02D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="332">
   <si>
     <t/>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>TG,(E-1B)</t>
+  </si>
+  <si>
+    <t>20141063</t>
+  </si>
+  <si>
+    <t>SQ CSHW BTRFLY 3X22G</t>
   </si>
   <si>
     <t>20140185</t>
@@ -1393,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2614,10 +2620,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>135</v>
@@ -2625,22 +2631,22 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2654,10 +2660,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2674,13 +2680,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>74</v>
@@ -2714,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>74</v>
@@ -2734,10 +2740,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>74</v>
@@ -2754,13 +2760,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2774,13 +2780,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2805,22 +2811,22 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2834,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2874,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2894,10 +2900,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2914,13 +2920,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,30 +2940,30 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2974,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -2994,10 +3000,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3014,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3034,10 +3040,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3054,10 +3060,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3074,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3094,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3134,13 +3140,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,13 +3160,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,10 +3180,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3194,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3214,13 +3220,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,13 +3240,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,10 +3260,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3274,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3294,10 +3300,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3305,19 +3311,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3334,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3354,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -3374,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3394,13 +3400,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,13 +3420,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,10 +3440,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3454,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3474,10 +3480,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3494,10 +3500,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3534,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3554,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3574,10 +3580,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3594,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -3614,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3634,10 +3640,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3645,19 +3651,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -3674,13 +3680,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3694,10 +3700,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -3714,13 +3720,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3734,10 +3740,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3754,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -3774,10 +3780,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -3785,19 +3791,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -3814,10 +3820,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
@@ -3834,13 +3840,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>9</v>
@@ -3874,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>9</v>
@@ -3894,13 +3900,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3914,33 +3920,33 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>276</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3954,13 +3960,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>276</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3974,33 +3980,33 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E130" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4014,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,13 +4040,13 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4054,33 +4060,33 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,10 +4100,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4114,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4134,10 +4140,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4154,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -4165,19 +4171,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
@@ -4194,13 +4200,13 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,13 +4220,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,10 +4240,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4254,10 +4260,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -4274,10 +4280,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -4294,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4314,10 +4320,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4334,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4354,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4374,10 +4380,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -4394,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5</v>
@@ -4414,13 +4420,33 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>292</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/CON02D.xlsx
+++ b/CON02D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="328">
   <si>
     <t/>
   </si>
@@ -316,22 +316,16 @@
     <t>SNICKERS CHOCO 35G</t>
   </si>
   <si>
-    <t>10000450</t>
-  </si>
-  <si>
-    <t>L`AGIE PEANUT PIE 30</t>
-  </si>
-  <si>
     <t>20054753</t>
   </si>
   <si>
-    <t>CADBURY FRUIT&amp;NUT 57</t>
+    <t>CADBURY FRUIT&amp;NUT 52</t>
   </si>
   <si>
     <t>20120257</t>
   </si>
   <si>
-    <t>CADBURY HAZELNUT 57G</t>
+    <t>CADBURY HAZELNUT 52G</t>
   </si>
   <si>
     <t>20054754</t>
@@ -340,12 +334,6 @@
     <t>CADBURY FRUIT&amp;NUT 30</t>
   </si>
   <si>
-    <t>20072368</t>
-  </si>
-  <si>
-    <t>CADBURY CSHW NUT 25G</t>
-  </si>
-  <si>
     <t>20134029</t>
   </si>
   <si>
@@ -364,6 +352,12 @@
     <t>L'AGIE FULL MILK 60G</t>
   </si>
   <si>
+    <t>20141135</t>
+  </si>
+  <si>
+    <t>DARK WNDR ALMD 2X56G</t>
+  </si>
+  <si>
     <t>20133639</t>
   </si>
   <si>
@@ -809,12 +803,6 @@
   </si>
   <si>
     <t>SUGUS STICK BLCRNT30</t>
-  </si>
-  <si>
-    <t>20088545</t>
-  </si>
-  <si>
-    <t>MNTOS INR.CHEW GRP45</t>
   </si>
   <si>
     <t>20014081</t>
@@ -1399,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F150"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2280,13 +2268,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,7 +2291,7 @@
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2323,7 +2311,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2343,7 +2331,7 @@
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2363,7 +2351,7 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2383,10 +2371,10 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -2420,13 +2408,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2443,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2463,7 +2451,7 @@
         <v>42</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2483,7 +2471,7 @@
         <v>42</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2500,10 +2488,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2523,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2543,7 +2531,7 @@
         <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2563,7 +2551,7 @@
         <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2583,18 +2571,18 @@
         <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -2603,10 +2591,10 @@
         <v>45</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,33 +2608,33 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2680,13 +2668,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2700,10 +2688,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>74</v>
@@ -2720,10 +2708,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>74</v>
@@ -2740,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>74</v>
@@ -2760,13 +2748,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,13 +2768,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2811,22 +2799,22 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2840,13 +2828,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2880,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2900,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2920,13 +2908,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,30 +2928,30 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2980,10 +2968,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -3000,10 +2988,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3020,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3040,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3060,10 +3048,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3080,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3100,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -3111,19 +3099,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3140,13 +3128,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,13 +3148,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3200,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3220,13 +3208,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,10 +3248,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3280,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3300,10 +3288,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3311,19 +3299,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3340,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3360,10 +3348,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -3380,10 +3368,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3400,13 +3388,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,13 +3408,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3460,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3480,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3500,10 +3488,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3511,19 +3499,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3540,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3560,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3580,10 +3568,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3600,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -3620,10 +3608,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3640,10 +3628,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3651,19 +3639,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -3680,13 +3668,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -3720,13 +3708,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,10 +3728,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3760,10 +3748,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -3780,10 +3768,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -3791,19 +3779,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -3820,13 +3808,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,13 +3828,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3860,10 +3848,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>9</v>
@@ -3880,13 +3868,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,30 +3888,30 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -3931,22 +3919,22 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3960,53 +3948,53 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,13 +4008,13 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4040,53 +4028,53 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4120,10 +4108,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4140,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4151,19 +4139,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -4171,22 +4159,22 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4200,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>5</v>
@@ -4220,13 +4208,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,10 +4228,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4260,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -4280,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -4300,10 +4288,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4320,10 +4308,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4340,10 +4328,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4360,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4380,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -4400,53 +4388,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/CON02D.xlsx
+++ b/CON02D.xlsx
@@ -337,7 +337,7 @@
     <t>20134029</t>
   </si>
   <si>
-    <t>DELFI TRSURE MLK2X36</t>
+    <t>DELFI TRSURE MLK2X30</t>
   </si>
   <si>
     <t>20130547</t>
